--- a/2020/cursos/informatica/Noveno Grado/docs excel/Libro Ventas.xlsx
+++ b/2020/cursos/informatica/Noveno Grado/docs excel/Libro Ventas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\GitHub\liceopatria.github.io\2020\cursos\informatica\Noveno Grado\docs excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39076549-3487-410F-8057-27A0F645B311}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F7DFE8E-6C91-47FF-B805-BF00EF2FAEF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{C14E34FE-C3B9-4997-BCB8-6BA76C6D0E89}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
   <si>
     <t>VENDEDORES</t>
   </si>
@@ -119,6 +119,95 @@
   </si>
   <si>
     <t>López</t>
+  </si>
+  <si>
+    <t>SUMA suma(rango)</t>
+  </si>
+  <si>
+    <t>SUMAR.SI(rango, criterio, [rango_suma])</t>
+  </si>
+  <si>
+    <t>SUMAR.SI(rango, criterio)</t>
+  </si>
+  <si>
+    <t>CIUDADES</t>
+  </si>
+  <si>
+    <t>BOGOTA</t>
+  </si>
+  <si>
+    <t>BUCARAMANGA</t>
+  </si>
+  <si>
+    <t>BARRANQUILLA</t>
+  </si>
+  <si>
+    <t>sumar.si.conjunto(rango_suma; rango_criterios1; criterios1; [rango_criterios2; criterios2];...)</t>
+  </si>
+  <si>
+    <r>
+      <t>SI(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>prueba_lógica</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF363636"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>valor_si_verdadero</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF363636"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> [valor_si_falso]</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF363636"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -129,7 +218,7 @@
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,6 +257,34 @@
     <font>
       <sz val="17.600000000000001"/>
       <color rgb="FF1E1E1E"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF363636"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
@@ -234,7 +351,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -257,83 +374,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -643,272 +705,349 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B1D5B4C-F2C9-463B-BD14-2663B6A5BE6E}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="3">
         <v>1520000</v>
       </c>
-      <c r="C2" s="3">
+      <c r="D2" s="3">
         <v>1800000</v>
       </c>
-      <c r="D2" s="3">
+      <c r="E2" s="3">
         <v>1900000</v>
       </c>
-      <c r="E2" s="3">
+      <c r="F2" s="3">
         <v>2160000</v>
       </c>
-      <c r="F2" s="6">
-        <f>SUM(B2:E2)</f>
+      <c r="G2" s="6">
+        <f>SUM(C2:F2)</f>
         <v>7380000</v>
       </c>
-      <c r="G2" s="6">
-        <f>AVERAGE(B2:E2)</f>
+      <c r="H2" s="6">
+        <f>AVERAGE(C2:F2)</f>
         <v>1845000</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="3">
         <v>1000000</v>
       </c>
-      <c r="C3" s="3">
+      <c r="D3" s="3">
         <v>1500000</v>
       </c>
-      <c r="D3" s="3">
+      <c r="E3" s="3">
         <v>1750000</v>
       </c>
-      <c r="E3" s="3">
+      <c r="F3" s="3">
         <v>2000000</v>
       </c>
-      <c r="F3" s="4">
-        <f t="shared" ref="F3:F5" si="0">SUM(B3:E3)</f>
+      <c r="G3" s="4">
+        <f t="shared" ref="G3:G5" si="0">SUM(C3:F3)</f>
         <v>6250000</v>
       </c>
-      <c r="G3" s="4">
-        <f t="shared" ref="G3:G5" si="1">AVERAGE(B3:E3)</f>
+      <c r="H3" s="4">
+        <f t="shared" ref="H3:H5" si="1">AVERAGE(C3:F3)</f>
         <v>1562500</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="3">
         <v>1530000</v>
       </c>
-      <c r="C4" s="3">
+      <c r="D4" s="3">
         <v>1700000</v>
       </c>
-      <c r="D4" s="3">
+      <c r="E4" s="3">
         <v>2000000</v>
       </c>
-      <c r="E4" s="3">
+      <c r="F4" s="3">
         <v>2150000</v>
       </c>
-      <c r="F4" s="4">
+      <c r="G4" s="4">
         <f t="shared" si="0"/>
         <v>7380000</v>
       </c>
-      <c r="G4" s="4">
+      <c r="H4" s="4">
         <f t="shared" si="1"/>
         <v>1845000</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="3">
         <v>950000</v>
       </c>
-      <c r="C5" s="3">
+      <c r="D5" s="3">
         <v>1200000</v>
       </c>
-      <c r="D5" s="3">
+      <c r="E5" s="3">
         <v>1100000</v>
       </c>
-      <c r="E5" s="3">
+      <c r="F5" s="3">
         <v>1500000</v>
       </c>
-      <c r="F5" s="4">
+      <c r="G5" s="4">
         <f t="shared" si="0"/>
         <v>4750000</v>
       </c>
-      <c r="G5" s="4">
+      <c r="H5" s="4">
         <f t="shared" si="1"/>
         <v>1187500</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="6">
-        <f>SUM(B2:B5)</f>
+      <c r="B7" s="1"/>
+      <c r="C7" s="6">
+        <f>SUM(C2:C5)</f>
         <v>5000000</v>
       </c>
-      <c r="C7" s="4">
-        <f t="shared" ref="C7:E7" si="2">SUM(C2:C5)</f>
+      <c r="D7" s="4">
+        <f t="shared" ref="D7:F7" si="2">SUM(D2:D5)</f>
         <v>6200000</v>
       </c>
-      <c r="D7" s="4">
+      <c r="E7" s="4">
         <f t="shared" si="2"/>
         <v>6750000</v>
       </c>
-      <c r="E7" s="4">
+      <c r="F7" s="4">
         <f t="shared" si="2"/>
         <v>7810000</v>
       </c>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="6">
-        <f>MAX(B2:B5)</f>
+      <c r="B8" s="1"/>
+      <c r="C8" s="6">
+        <f>MAX(C2:C5)</f>
         <v>1530000</v>
       </c>
-      <c r="C8" s="4">
-        <f t="shared" ref="C8:E8" si="3">MAX(C2:C5)</f>
+      <c r="D8" s="4">
+        <f t="shared" ref="D8:F8" si="3">MAX(D2:D5)</f>
         <v>1800000</v>
       </c>
-      <c r="D8" s="4">
+      <c r="E8" s="4">
         <f t="shared" si="3"/>
         <v>2000000</v>
       </c>
-      <c r="E8" s="4">
+      <c r="F8" s="4">
         <f t="shared" si="3"/>
         <v>2160000</v>
       </c>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="6">
-        <f>MIN(B2:B5)</f>
+      <c r="B9" s="1"/>
+      <c r="C9" s="6">
+        <f>MIN(C2:C5)</f>
         <v>950000</v>
       </c>
-      <c r="C9" s="4">
-        <f t="shared" ref="C9:E9" si="4">MIN(C2:C5)</f>
+      <c r="D9" s="4">
+        <f t="shared" ref="D9:F9" si="4">MIN(D2:D5)</f>
         <v>1200000</v>
       </c>
-      <c r="D9" s="4">
+      <c r="E9" s="4">
         <f t="shared" si="4"/>
         <v>1100000</v>
       </c>
-      <c r="E9" s="4">
+      <c r="F9" s="4">
         <f t="shared" si="4"/>
         <v>1500000</v>
       </c>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="7"/>
+      <c r="B10" s="1"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="5">
-        <f>AVERAGE(B2:E5)</f>
+      <c r="B11" s="1"/>
+      <c r="C11" s="5">
+        <f>AVERAGE(C2:F5)</f>
         <v>1610000</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B13">
-        <f>COUNT(B2:E5)</f>
+      <c r="B13" s="1"/>
+      <c r="C13">
+        <f>COUNT(C2:F5)</f>
         <v>16</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E13">
-        <f>COUNTIFS(A2:A5,"&lt;&gt;M",B2:B5,"&gt;1000000")</f>
+      <c r="F13">
+        <f>COUNTIFS(A2:A5,"&lt;&gt;M",C2:C5,"&gt;1000000")</f>
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B14">
-        <f>COUNTA(B2:E5)</f>
+      <c r="B14" s="1"/>
+      <c r="C14">
+        <f>COUNTA(C2:F5)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B15">
-        <f>COUNTBLANK(B2:E5)</f>
+      <c r="B15" s="1"/>
+      <c r="C15">
+        <f>COUNTBLANK(C2:F5)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B16">
-        <f>COUNTIF(B2:E5,"&gt;2000000")</f>
+      <c r="B16" s="1"/>
+      <c r="C16">
+        <f>COUNTIF(C2:F5,"&gt;2000000")</f>
         <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="12">
+        <f>SUM(C2:F5)</f>
+        <v>25760000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="3">
+        <f>SUMIF(C2:F5,"&lt;&gt;"&amp;D3)</f>
+        <v>22760000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="3">
+        <f>SUMIF(B2:B5,"Bogota",D2:D5)</f>
+        <v>3300000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C21" s="3">
+        <f>SUMIF(B2:B5,"&lt;&gt;barranquilla",E2:E5)</f>
+        <v>5650000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="14"/>
+      <c r="C22" s="15">
+        <f>SUMIFS(E2:E5,B2:B5,"&lt;&gt;"&amp;B5,E2:E5,"&gt;=1900000")</f>
+        <v>3900000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" s="14" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="17" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="10000" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
